--- a/00-项目资料/06-红包雨场景案例-项目资料/attachments-红包雨项目/02-系统设计-相关表格.xlsx
+++ b/00-项目资料/06-红包雨场景案例-项目资料/attachments-红包雨项目/02-系统设计-相关表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表设计" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="137">
   <si>
     <t>------------</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,6 +552,14 @@
   </si>
   <si>
     <t>bigint(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动宣传图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G58"/>
+  <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1165,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f t="shared" ref="F11:F19" si="1">$G$1&amp;B11&amp;$G$1&amp;C11&amp;$G$1&amp;D11&amp;$G$1</f>
+        <f t="shared" ref="F11:F20" si="1">$G$1&amp;B11&amp;$G$1&amp;C11&amp;$G$1&amp;D11&amp;$G$1</f>
         <v>|字段|类型|备注|</v>
       </c>
     </row>
@@ -1214,572 +1222,587 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|info|varchar(1000)|活动简介|</v>
+        <v>|pic|varchar(255)|活动宣传图|</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|starttime|datetime|开始时间|</v>
+        <v>|info|varchar(1000)|活动简介|</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|endtime|datetime|结束时间|</v>
+        <v>|starttime|datetime|开始时间|</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|type|tinyint(2)|类型（1=概率类，2=随机类）|</v>
+        <v>|endtime|datetime|结束时间|</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="1"/>
+        <v>|type|tinyint(2)|类型（1=概率类，2=随机类）|</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>|status|tinyint(1)|状态（0=新建，1=已加载）|</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="7" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="4" t="str">
-        <f t="shared" ref="F22:F32" si="2">$G$1&amp;B22&amp;$G$1&amp;C22&amp;$G$1&amp;D22&amp;$G$1</f>
+      <c r="F23" s="4" t="str">
+        <f t="shared" ref="F23:F33" si="2">$G$1&amp;B23&amp;$G$1&amp;C23&amp;$G$1&amp;D23&amp;$G$1</f>
         <v>|字段|类型|备注|</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="4" t="str">
+      <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|:------------:|------------|------------|</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="F24" s="4" t="str">
+      <c r="D25" s="6"/>
+      <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|id|int(11) unsigned||</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="4" t="str">
+      <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|uname|varchar(20)|用户名|</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="4" t="str">
+      <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|passwd|varchar(50)|密码|</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="4" t="str">
+      <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|realname|varchar(10)|姓名|</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="4" t="str">
+      <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|idcard|varchar(18)|身份证号|</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="4" t="str">
+      <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|phone|varchar(15)|手机号码|</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="4" t="str">
+      <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|level|smallint(6)|等级|</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="5" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="4" t="str">
+      <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|createtime|datetime|注册时间|</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="4" t="str">
+      <c r="F33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>|updatetime|datetime|更新时间|</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="7" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="4" t="str">
-        <f t="shared" ref="F35:F41" si="3">$G$1&amp;B35&amp;$G$1&amp;C35&amp;$G$1&amp;D35&amp;$G$1</f>
+      <c r="F36" s="4" t="str">
+        <f t="shared" ref="F36:F42" si="3">$G$1&amp;B36&amp;$G$1&amp;C36&amp;$G$1&amp;D36&amp;$G$1</f>
         <v>|字段|类型|备注|</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="4" t="str">
+      <c r="F37" s="4" t="str">
         <f t="shared" si="3"/>
         <v>|:------------:|------------|------------|</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="F37" s="4" t="str">
+      <c r="D38" s="6"/>
+      <c r="F38" s="4" t="str">
         <f t="shared" si="3"/>
         <v>|id|int(11) unsigned||</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="4" t="str">
+      <c r="F39" s="4" t="str">
         <f t="shared" si="3"/>
         <v>|gameid|int(11) unsigned|活动id|</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="5" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="4" t="str">
+      <c r="F40" s="4" t="str">
         <f t="shared" si="3"/>
         <v>|userlevel|smallint(6)|会员等级|</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="5" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="4" t="str">
+      <c r="F41" s="4" t="str">
         <f t="shared" si="3"/>
         <v>|enter_times|smallint(6)|可抽奖次数（0为不限）|</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="4" t="str">
+      <c r="F42" s="4" t="str">
         <f t="shared" si="3"/>
         <v>|goal_times|smallint(6)|最大中奖次数（0为不限）|</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="7" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="4" t="str">
-        <f t="shared" ref="F44:F50" si="4">$G$1&amp;B44&amp;$G$1&amp;C44&amp;$G$1&amp;D44&amp;$G$1</f>
+      <c r="F45" s="4" t="str">
+        <f t="shared" ref="F45:F51" si="4">$G$1&amp;B45&amp;$G$1&amp;C45&amp;$G$1&amp;D45&amp;$G$1</f>
         <v>|字段|类型|备注|</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="4" t="str">
+      <c r="F46" s="4" t="str">
         <f t="shared" si="4"/>
         <v>|:------------:|------------|------------|</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="5" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="F46" s="4" t="str">
+      <c r="D47" s="6"/>
+      <c r="F47" s="4" t="str">
         <f t="shared" si="4"/>
         <v>|id|int(10) unsigned||</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="5" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="4" t="str">
+      <c r="F48" s="4" t="str">
         <f t="shared" si="4"/>
         <v>|gameid|int(10) unsigned|活动id|</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="5" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="4" t="str">
+      <c r="F49" s="4" t="str">
         <f t="shared" si="4"/>
         <v>|userid|int(10) unsigned|用户|</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="5" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="4" t="str">
+      <c r="F50" s="4" t="str">
         <f t="shared" si="4"/>
         <v>|productid|int(10) unsigned|奖品|</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="5" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="4" t="str">
+      <c r="F51" s="4" t="str">
         <f t="shared" si="4"/>
         <v>|hittime|datetime|中奖时间|</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="7" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="4" t="str">
-        <f t="shared" ref="F53:F58" si="5">$G$1&amp;B53&amp;$G$1&amp;C53&amp;$G$1&amp;D53&amp;$G$1</f>
+      <c r="F54" s="4" t="str">
+        <f t="shared" ref="F54:F59" si="5">$G$1&amp;B54&amp;$G$1&amp;C54&amp;$G$1&amp;D54&amp;$G$1</f>
         <v>|字段|类型|备注|</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="4" t="str">
+      <c r="F55" s="4" t="str">
         <f t="shared" si="5"/>
         <v>|:------------:|------------|------------|</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="5" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="F55" s="4" t="str">
+      <c r="D56" s="6"/>
+      <c r="F56" s="4" t="str">
         <f t="shared" si="5"/>
         <v>|id|int(10) unsigned||</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="4" t="str">
+      <c r="F57" s="4" t="str">
         <f t="shared" si="5"/>
         <v>|gameid|int(11) unsigned|活动id|</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="5" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="4" t="str">
+      <c r="F58" s="4" t="str">
         <f t="shared" si="5"/>
         <v>|productid|int(11) unsigned|奖品id|</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="5" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="4" t="str">
+      <c r="F59" s="4" t="str">
         <f t="shared" si="5"/>
         <v>|amount|smallint(6)|数量|</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1791,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
